--- a/project/training/datasets/SubjectsRF.xlsx
+++ b/project/training/datasets/SubjectsRF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\EconPV-ML-Assessment-Hub\project\training\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB453AEF-D00B-42DD-8BEC-79E977B98F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5896FA-0D34-4D6E-BD07-A44A041C7E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,10 +277,10 @@
     <t>Кабардино-Балкарская республика</t>
   </si>
   <si>
-    <t>Название региона</t>
-  </si>
-  <si>
-    <t>Руб/кВт*ч</t>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
